--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Machine Learning\CSC2515 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF59052-560A-4480-8D85-30600A090D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EA4FC-56FD-43C9-8A22-5B75D0BEB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="300" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4690" yWindow="90" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>mnist</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,30 @@
   </si>
   <si>
     <t>MLP [3072, 512, 64, 10] best test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 subnetworks latent = 64 domain=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MLP [3072, 512, 64, 10] best val lr schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwapMLP [3072, 512, 64, 10] best val lr schedule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 subnetworks latent = 64 domain=0.5 same</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 subnetworks latent = 64 domain=0.5 latent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwapMLP [3072, 512, 64, 10] best test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.08203125" customWidth="1"/>
     <col min="2" max="2" width="16.08203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
@@ -483,6 +507,27 @@
         <v>0.62732500000000002</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.46210000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="F4" s="1">
+        <f>AVERAGE(B4:E4)</f>
+        <v>0.62895000000000001</v>
+      </c>
+    </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
@@ -543,6 +588,291 @@
       <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>0.640625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.65790000000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <f>AVERAGE(B13:E13)</f>
+        <v>0.645625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>0.8891</v>
+      </c>
+      <c r="C18">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="D18">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="E18">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" ref="F18" si="2">AVERAGE(B18:E18)</f>
+        <v>0.64224999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="C19">
+        <v>0.5343</v>
+      </c>
+      <c r="D19">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <f>AVERAGE(B19:E19)</f>
+        <v>0.64380000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>0.89590000000000003</v>
+      </c>
+      <c r="C27">
+        <v>0.54079999999999995</v>
+      </c>
+      <c r="D27">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="E27">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ref="F27" si="3">AVERAGE(B27:E27)</f>
+        <v>0.65075000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.6613</v>
+      </c>
+      <c r="F28" s="1">
+        <f>AVERAGE(B28:E28)</f>
+        <v>0.64777499999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="C34">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="D34">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="E34">
+        <v>0.64739999999999998</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34" si="4">AVERAGE(B34:E34)</f>
+        <v>0.64775000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="D35">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="F35" s="1">
+        <f>AVERAGE(B35:E35)</f>
+        <v>0.64244999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>0.88539999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="C43">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="D43">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="E43">
+        <v>0.6512</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43" si="5">AVERAGE(B43:E43)</f>
+        <v>0.65349999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="C44">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="D44">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="E44">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <f>AVERAGE(B44:E44)</f>
+        <v>0.64890000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>0.8891</v>
       </c>
     </row>
   </sheetData>
